--- a/easyexcel-test/src/test/resources/dataformat/dataformatv2.xlsx
+++ b/easyexcel-test/src/test/resources/dataformat/dataformatv2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/easyexcel/easyexcel-test/src/test/resources/dataformat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AF18BF-8D9E-654C-B6F5-3F4007AADB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1B601F-2897-1040-8CF5-2D1E23973652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4300" windowWidth="27840" windowHeight="16940" xr2:uid="{88D66255-3111-1749-B7E3-77D6783EABAC}"/>
+    <workbookView xWindow="7280" yWindow="3940" windowWidth="27840" windowHeight="16940" xr2:uid="{88D66255-3111-1749-B7E3-77D6783EABAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47442E54-03AF-9C4B-9623-CBC9EA4B48B5}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -444,8 +444,24 @@
         <v>44927.000005798611</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <v>44927.000000011576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <v>44927.000011562501</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>